--- a/codigo organizado/tabla_resultados_tsfresh.xlsx
+++ b/codigo organizado/tabla_resultados_tsfresh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,177 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>lags_used</t>
+          <t>steps_forecasted</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>steps_forecasted</t>
+          <t>mae</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>mse</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>mape</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mape</t>
+          <t>mae_day_0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mae_day_1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>mae_day_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>mae_day_3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mae_day_4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>mae_day_5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mae_day_6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_0</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_6</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_7</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_8</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_9</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_10</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_11</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_12</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_13</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_14</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_15</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_16</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_17</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_18</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_19</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_20</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_21</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_22</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>mae_hour_23</t>
         </is>
       </c>
     </row>
@@ -475,19 +625,109 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>2150.199294554192</v>
       </c>
       <c r="E2" t="n">
-        <v>2150.199294554192</v>
+        <v>7510340.156681016</v>
       </c>
       <c r="F2" t="n">
-        <v>7510340.156681016</v>
+        <v>0.07967317017473095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07967317017473095</v>
+        <v>2371.383442844875</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2212.245565921806</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2265.006867933935</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2255.365950202579</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2060.281287599868</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2015.147620010401</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1842.024729158009</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3841.751251645178</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3443.161426244824</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2385.396171565761</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1776.05888119016</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1119.623624324893</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1611.391264323316</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3196.922011739193</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1664.770278319259</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2232.553903237454</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2998.956865243876</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1710.740655142037</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1208.169684711742</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>721.0469366457191</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1245.126151376738</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1204.34231896014</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>844.7914375720004</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1368.092784492769</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2609.902067857549</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2789.185804971298</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2231.140001106063</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1419.418051574565</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2573.427031133609</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3794.763156846351</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3656.992394889316</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +740,109 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>2022.878392600526</v>
       </c>
       <c r="E3" t="n">
-        <v>2022.878392600526</v>
+        <v>6508059.022575521</v>
       </c>
       <c r="F3" t="n">
-        <v>6508059.022575522</v>
+        <v>0.07523476933378588</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07523476933378589</v>
+        <v>2232.041251393411</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2074.330736184433</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2156.912377832749</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2104.796593072328</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1893.913559137395</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1939.776459753517</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1729.307489123634</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3607.667482143953</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3277.994632447244</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2443.801678493696</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1637.715451101559</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1036.954864195665</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1600.037597016443</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2824.460804029086</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1486.848684550306</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1924.366112532621</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2662.4998350864</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1651.597924679275</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1131.348044141126</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>694.2029371805427</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1305.276179835097</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1164.398040594736</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>727.1353394464522</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1246.30402752012</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2540.23483341725</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2355.526280267842</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2231.729330139947</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1386.267604861881</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2530.642678271718</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3600.034436279813</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3520.249230056544</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +855,109 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2523.718264481672</v>
       </c>
       <c r="E4" t="n">
-        <v>2507.390469567786</v>
+        <v>10221818.45362617</v>
       </c>
       <c r="F4" t="n">
-        <v>10148578.59945783</v>
+        <v>0.09332009301136804</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09245017500382237</v>
+        <v>2737.356689728683</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2699.314356751439</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2706.240451111594</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2639.71633935328</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2539.159941706395</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2218.398355125916</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2079.878966953861</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4839.09697257032</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3980.386242083688</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2528.730785403243</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1105.355957339175</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1166.272722296749</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2862.869893927756</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4546.469580052132</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3634.011054148796</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3365.904460971363</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2345.361373834627</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1312.673633910082</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>951.2512572031691</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1124.307510209094</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1445.550259552676</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1460.141767428998</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>943.1145242404593</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1257.734203962904</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>3103.610535298762</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2770.868467897152</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1332.988842863878</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1539.617440257512</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>3173.592938192408</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>4666.398888641505</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>5198.614253003063</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +970,109 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2163.754363505835</v>
       </c>
       <c r="E5" t="n">
-        <v>2163.754363505835</v>
+        <v>7276846.44476368</v>
       </c>
       <c r="F5" t="n">
-        <v>7276846.44476368</v>
+        <v>0.08069051382610194</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08069051382610194</v>
+        <v>2365.560125464465</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2268.986211013948</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2260.878789581327</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2227.609494715808</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2050.893140331365</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2052.841623832521</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1894.152229005657</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4211.524425281363</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3715.330348974503</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2745.209459906354</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1707.699378050662</v>
+      </c>
+      <c r="R5" t="n">
+        <v>896.2609842127055</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1738.220548783545</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3491.490709768382</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1741.510068905211</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1965.606896473775</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3023.953739387864</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1310.508781773874</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>688.9946774639392</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>540.5537377768636</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1267.212317100016</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1376.726426447203</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>875.7640619411201</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1145.645999431966</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2516.051732907508</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2841.262439440573</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2309.202440607103</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1230.200722160149</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2807.062787039213</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3853.630200699978</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>3974.001960689116</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +1085,109 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>2199.891906888703</v>
       </c>
       <c r="E6" t="n">
-        <v>2199.891906888703</v>
+        <v>7439668.863147975</v>
       </c>
       <c r="F6" t="n">
-        <v>7439668.863147975</v>
+        <v>0.08193294432949336</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08193294432949336</v>
+        <v>2406.809277731275</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2285.800446245007</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2341.173798630057</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2307.087447453446</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2139.610929701063</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2026.360590132456</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1857.592051188151</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4198.694966133005</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3913.572395512623</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2844.658381119151</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1901.776102601601</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1068.403367617252</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1722.895369105347</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3432.194090594212</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1835.989987428161</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1939.065337483323</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3030.63029171798</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1506.487356001129</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>814.6876603550903</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>578.3730172093083</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1123.231716403714</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1133.019503663489</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>778.6307892264425</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1296.470928546207</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2708.592197273507</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3215.858552133777</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2275.586356026786</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1296.8041286761</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2722.427624028955</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>3713.421068326596</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3791.404643241995</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +1200,109 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>1964.128288615316</v>
       </c>
       <c r="E7" t="n">
-        <v>1964.128288615316</v>
+        <v>6349356.077281324</v>
       </c>
       <c r="F7" t="n">
-        <v>6349356.077281324</v>
+        <v>0.07235824346270257</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07235824346270257</v>
+        <v>2155.464638894375</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1957.584247477107</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2020.856569986024</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2024.748662791388</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1837.349199635133</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1988.742554825975</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1750.425962973287</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2575.551243705553</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2571.980109958662</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1973.371269086263</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1781.789939401674</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1181.017603029016</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1614.053886774055</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3219.706957818597</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1387.76323536398</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1830.065616571918</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2826.057172529862</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1809.9883178655</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1007.715235683851</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>493.0930914386816</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>991.293156984426</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1175.925106998753</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>782.6537662201918</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1343.498609673675</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2735.033324750103</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3051.690279652797</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2249.794156042327</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1184.69332899597</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2556.621771340861</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>3892.494388819158</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2919.783881676082</v>
       </c>
     </row>
   </sheetData>
